--- a/data/Enviar Arquivo - Firefox.xlsx
+++ b/data/Enviar Arquivo - Firefox.xlsx
@@ -377,7 +377,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -406,7 +408,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>1043</v>
+        <v>1064</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
